--- a/REGULAR/OJT/NEW DONE/AMBION, LAMBERTO.xlsx
+++ b/REGULAR/OJT/NEW DONE/AMBION, LAMBERTO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="298">
   <si>
     <t>PERIOD</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>2/6,13,14/2023</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,6 +1370,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1816,7 +1822,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1865,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1929,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1989,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2055,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2118,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2216,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2275,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2340,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2383,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2458,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2644,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +2710,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2768,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2834,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2890,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,7 +2965,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3008,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,7 +3074,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3130,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3228,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3285,7 +3291,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3740,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1890" topLeftCell="A447" activePane="bottomLeft"/>
       <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="K458" sqref="K458"/>
+      <selection pane="bottomLeft" activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,7 +3897,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>129.24400000000009</v>
+        <v>128.24400000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13849,9 +13855,13 @@
       <c r="A459" s="39">
         <v>45017</v>
       </c>
-      <c r="B459" s="20"/>
+      <c r="B459" s="20" t="s">
+        <v>297</v>
+      </c>
       <c r="C459" s="13"/>
-      <c r="D459" s="38"/>
+      <c r="D459" s="38">
+        <v>1</v>
+      </c>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
       <c r="G459" s="41" t="str">
@@ -13861,7 +13871,9 @@
       <c r="H459" s="38"/>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
-      <c r="K459" s="20"/>
+      <c r="K459" s="68">
+        <v>45043</v>
+      </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
